--- a/Bibsam_tidskriftslistor/scifree_data_royalsociety.xlsx
+++ b/Bibsam_tidskriftslistor/scifree_data_royalsociety.xlsx
@@ -54,63 +54,33 @@
     <t>Philosophical Transactions A</t>
   </si>
   <si>
-    <t>rsta.royalsocietypublishing.org/</t>
-  </si>
-  <si>
     <t>Philosophical Transactions B</t>
   </si>
   <si>
-    <t>rstb.royalsocietypublishing.org/</t>
-  </si>
-  <si>
     <t>Proceedings A</t>
   </si>
   <si>
-    <t>rspa.royalsocietypublishing.org/</t>
-  </si>
-  <si>
     <t>Proceedings B</t>
   </si>
   <si>
-    <t>rspb.royalsocietypublishing.org/</t>
-  </si>
-  <si>
     <t>Biology Letters</t>
   </si>
   <si>
-    <t>rsbl.royalsocietypublishing.org/</t>
-  </si>
-  <si>
     <t>Journal of Royal Society Interface</t>
   </si>
   <si>
-    <t>rsif.royalsocietypublishing.org/</t>
-  </si>
-  <si>
     <t>Interface Focus</t>
   </si>
   <si>
-    <t>rsfs.royalsocietypublishing.org/</t>
-  </si>
-  <si>
     <t>Notes and Records</t>
   </si>
   <si>
-    <t>rsnr.royalsocietypublishing.org/</t>
-  </si>
-  <si>
     <t xml:space="preserve">Open Biology </t>
   </si>
   <si>
-    <t>rsob.royalsocietypublishing.org/</t>
-  </si>
-  <si>
     <t xml:space="preserve">Royal Society Open Science </t>
   </si>
   <si>
-    <t>rsos.royalsocietypublishing.org/</t>
-  </si>
-  <si>
     <t>1471-2962</t>
   </si>
   <si>
@@ -142,13 +112,43 @@
   </si>
   <si>
     <t>Open</t>
+  </si>
+  <si>
+    <t>https://rsta.royalsocietypublishing.org/</t>
+  </si>
+  <si>
+    <t>https://rstb.royalsocietypublishing.org/</t>
+  </si>
+  <si>
+    <t>https://rspa.royalsocietypublishing.org/</t>
+  </si>
+  <si>
+    <t>https://rspb.royalsocietypublishing.org/</t>
+  </si>
+  <si>
+    <t>https://rsbl.royalsocietypublishing.org/</t>
+  </si>
+  <si>
+    <t>https://rsif.royalsocietypublishing.org/</t>
+  </si>
+  <si>
+    <t>https://rsfs.royalsocietypublishing.org/</t>
+  </si>
+  <si>
+    <t>https://rsnr.royalsocietypublishing.org/</t>
+  </si>
+  <si>
+    <t>https://rsob.royalsocietypublishing.org/</t>
+  </si>
+  <si>
+    <t>https://rsos.royalsocietypublishing.org/</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -160,6 +160,14 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -182,14 +190,17 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="1">
@@ -481,7 +492,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -521,13 +534,13 @@
         <v>9</v>
       </c>
       <c r="B2" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="D2" t="s">
         <v>10</v>
       </c>
-      <c r="E2" t="s">
-        <v>11</v>
+      <c r="E2" s="2" t="s">
+        <v>31</v>
       </c>
       <c r="F2" t="s">
         <v>7</v>
@@ -541,13 +554,13 @@
         <v>9</v>
       </c>
       <c r="B3" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="D3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" t="s">
-        <v>13</v>
+        <v>11</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>32</v>
       </c>
       <c r="F3" t="s">
         <v>7</v>
@@ -561,13 +574,13 @@
         <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="D4" t="s">
-        <v>14</v>
-      </c>
-      <c r="E4" t="s">
-        <v>15</v>
+        <v>12</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>33</v>
       </c>
       <c r="F4" t="s">
         <v>7</v>
@@ -581,13 +594,13 @@
         <v>9</v>
       </c>
       <c r="B5" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="D5" t="s">
-        <v>16</v>
-      </c>
-      <c r="E5" t="s">
-        <v>17</v>
+        <v>13</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>34</v>
       </c>
       <c r="F5" t="s">
         <v>7</v>
@@ -601,13 +614,13 @@
         <v>9</v>
       </c>
       <c r="B6" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="D6" t="s">
-        <v>18</v>
-      </c>
-      <c r="E6" t="s">
-        <v>19</v>
+        <v>14</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>35</v>
       </c>
       <c r="F6" t="s">
         <v>7</v>
@@ -621,13 +634,13 @@
         <v>9</v>
       </c>
       <c r="B7" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>20</v>
-      </c>
-      <c r="E7" t="s">
-        <v>21</v>
+        <v>15</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>36</v>
       </c>
       <c r="F7" t="s">
         <v>7</v>
@@ -641,13 +654,13 @@
         <v>9</v>
       </c>
       <c r="B8" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>22</v>
-      </c>
-      <c r="E8" t="s">
-        <v>23</v>
+        <v>16</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>37</v>
       </c>
       <c r="F8" t="s">
         <v>7</v>
@@ -661,13 +674,13 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="D9" t="s">
-        <v>24</v>
-      </c>
-      <c r="E9" t="s">
-        <v>25</v>
+        <v>17</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>38</v>
       </c>
       <c r="F9" t="s">
         <v>7</v>
@@ -681,16 +694,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="D10" t="s">
-        <v>26</v>
-      </c>
-      <c r="E10" t="s">
-        <v>27</v>
+        <v>18</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>39</v>
       </c>
       <c r="F10" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="G10" t="s">
         <v>8</v>
@@ -701,16 +714,16 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="D11" t="s">
-        <v>28</v>
-      </c>
-      <c r="E11" t="s">
-        <v>29</v>
+        <v>19</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>40</v>
       </c>
       <c r="F11" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="G11" t="s">
         <v>8</v>
@@ -720,7 +733,19 @@
   <conditionalFormatting sqref="B1:B1048576">
     <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
+  <hyperlinks>
+    <hyperlink ref="E2" r:id="rId1"/>
+    <hyperlink ref="E3" r:id="rId2"/>
+    <hyperlink ref="E4" r:id="rId3"/>
+    <hyperlink ref="E5" r:id="rId4"/>
+    <hyperlink ref="E6" r:id="rId5"/>
+    <hyperlink ref="E7" r:id="rId6"/>
+    <hyperlink ref="E8" r:id="rId7"/>
+    <hyperlink ref="E9" r:id="rId8"/>
+    <hyperlink ref="E10" r:id="rId9"/>
+    <hyperlink ref="E11" r:id="rId10"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId11"/>
 </worksheet>
 </file>
--- a/Bibsam_tidskriftslistor/scifree_data_royalsociety.xlsx
+++ b/Bibsam_tidskriftslistor/scifree_data_royalsociety.xlsx
@@ -493,7 +493,7 @@
   <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
